--- a/Clase07/Libro1.xlsx
+++ b/Clase07/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-MODELAMIENTO-DATOS-2021-09\Clase07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D247F6-40CD-461D-8EB3-83E695B58D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B96FD-8CF4-49A0-A76A-A5B972507E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9ABFE9DF-D3E2-4D83-963C-CD4009B40322}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>IdPedido</t>
   </si>
@@ -307,15 +307,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,18 +319,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,9 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,9 +341,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,6 +405,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -749,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E73947F-D853-472C-9753-7D9239554DDA}">
-  <dimension ref="B2:J254"/>
+  <dimension ref="B2:J256"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,24 +761,24 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="13" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" style="19" customWidth="1"/>
+    <col min="8" max="8" width="13" style="13" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
     <col min="12" max="12" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -804,131 +804,131 @@
       </c>
     </row>
     <row r="5" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+      <c r="B5" s="41">
         <v>123</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="42">
         <v>39195</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="41">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="14">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="15">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
+      <c r="B8" s="44">
         <v>246</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="45">
         <v>44331</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="44">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="28" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="39">
         <v>280</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="40">
         <v>39237</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="39">
         <v>10</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="25" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="33">
         <v>5</v>
       </c>
     </row>
@@ -941,9 +941,6 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>21</v>
-      </c>
       <c r="F14" s="2"/>
       <c r="H14" s="2"/>
     </row>
@@ -952,6 +949,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="H16" s="2"/>
     </row>
@@ -960,189 +960,186 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38" t="s">
+      <c r="F18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="38" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="32">
+    <row r="21" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
         <v>123</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C21" s="25">
         <v>39195</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D21" s="23">
         <v>10</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="32">
+      <c r="F21" s="2"/>
+      <c r="G21" s="23">
         <v>123</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J21" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17">
+    <row r="22" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>246</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C22" s="26">
         <v>44331</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D22" s="11">
         <v>20</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E22" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="32">
+      <c r="F22" s="2"/>
+      <c r="G22" s="23">
         <v>123</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J22" s="23">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18">
+    <row r="23" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
         <v>280</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C23" s="27">
         <v>39237</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D23" s="12">
         <v>10</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E23" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="32">
+      <c r="F23" s="2"/>
+      <c r="G23" s="23">
         <v>123</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H23" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="2"/>
-      <c r="G22" s="32">
-        <v>246</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="32">
-        <v>246</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="32">
+      <c r="J23" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
-      <c r="G24" s="32">
-        <v>280</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="32">
-        <v>1</v>
+      <c r="G24" s="23">
+        <v>246</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="23">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
-      <c r="G25" s="32">
-        <v>280</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25" s="32">
-        <v>5</v>
+      <c r="G25" s="23">
+        <v>246</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="23">
+        <v>280</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="23">
+        <v>280</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
-        <v>22</v>
-      </c>
       <c r="F29" s="2"/>
       <c r="H29" s="2"/>
     </row>
@@ -1151,180 +1148,231 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
-      <c r="G32" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23">
+        <v>123</v>
+      </c>
+      <c r="C34" s="25">
+        <v>39195</v>
+      </c>
+      <c r="D34" s="23">
+        <v>10</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="2"/>
+      <c r="G34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>246</v>
+      </c>
+      <c r="C35" s="26">
+        <v>44331</v>
+      </c>
+      <c r="D35" s="11">
+        <v>20</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>12</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
+        <v>280</v>
+      </c>
+      <c r="C36" s="27">
+        <v>39237</v>
+      </c>
+      <c r="D36" s="12">
+        <v>10</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="38" t="s">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C42" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="H40" s="38" t="s">
+      <c r="F42" s="2"/>
+      <c r="H42" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="32">
+    <row r="43" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23">
         <v>123</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C43" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D43" s="23">
         <v>20</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="H41" s="32" t="s">
+      <c r="F43" s="2"/>
+      <c r="H43" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="33" t="s">
+      <c r="I43" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="32">
+    <row r="44" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23">
         <v>123</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D44" s="23">
         <v>5</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="H42" s="32" t="s">
+      <c r="F44" s="2"/>
+      <c r="H44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="33" t="s">
+      <c r="I44" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32">
+    <row r="45" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23">
         <v>123</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C45" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D45" s="23">
         <v>1</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="H43" s="32" t="s">
+      <c r="F45" s="2"/>
+      <c r="H45" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="33" t="s">
+      <c r="I45" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="32">
+    <row r="46" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23">
         <v>246</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C46" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D46" s="23">
         <v>10</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="H44" s="32" t="s">
+      <c r="F46" s="2"/>
+      <c r="H46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I46" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="32">
+    <row r="47" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23">
         <v>246</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C47" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D47" s="23">
         <v>1</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="H45" s="32" t="s">
+      <c r="F47" s="2"/>
+      <c r="H47" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="33" t="s">
+      <c r="I47" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="32">
+    <row r="48" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23">
         <v>280</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C48" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D48" s="23">
         <v>1</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="32">
-        <v>280</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="32">
-        <v>5</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23">
+        <v>280</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="23">
+        <v>5</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="H49" s="2"/>
     </row>
@@ -1333,87 +1381,87 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="46" t="s">
-        <v>24</v>
-      </c>
       <c r="F51" s="2"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="2"/>
-      <c r="H52" s="38" t="s">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+      <c r="H54" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="38" t="s">
+    <row r="55" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="H53" s="32">
+      <c r="F55" s="2"/>
+      <c r="H55" s="23">
         <v>10</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I55" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="32">
+    <row r="56" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="23">
         <v>123</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C56" s="25">
         <v>39195</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D56" s="23">
         <v>10</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="H54" s="17">
+      <c r="F56" s="2"/>
+      <c r="H56" s="11">
         <v>20</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I56" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="17">
+    <row r="57" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="11">
         <v>246</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C57" s="26">
         <v>44331</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D57" s="11">
         <v>20</v>
       </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="12">
         <v>280</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C58" s="27">
         <v>39237</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D58" s="12">
         <v>10</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="2"/>
       <c r="H58" s="2"/>
     </row>
@@ -2200,6 +2248,14 @@
     <row r="254" spans="6:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F254" s="2"/>
       <c r="H254" s="2"/>
+    </row>
+    <row r="255" spans="6:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F255" s="2"/>
+      <c r="H255" s="2"/>
+    </row>
+    <row r="256" spans="6:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F256" s="2"/>
+      <c r="H256" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
